--- a/medicine/Psychotrope/Côtes-de-thau/Côtes-de-thau.xlsx
+++ b/medicine/Psychotrope/Côtes-de-thau/Côtes-de-thau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-thau</t>
+          <t>Côtes-de-thau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Côtes-de-thau, anciennement vin de Pays des Côtes-de-thau, est un vin français d'indication géographique protégée de zone, produit dans le département de l'Hérault.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-thau</t>
+          <t>Côtes-de-thau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin de Thau est occupé depuis la fin du néolithique. L'implantation y devient manifeste à la fin de l'âge du bronze.
 Vers 50 apr. J.-C., l'étang de Thau est un centre économique et social important. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-thau</t>
+          <t>Côtes-de-thau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,81 +563,353 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de l'IGP
-Les communes de l'Hérault
-Six communes sont concernées dans l'Hérault : Agde, Castelnau-de-Guers, Florensac, Marseillan, Pinet et Pomérols
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les communes de l'Hérault</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Six communes sont concernées dans l'Hérault : Agde, Castelnau-de-Guers, Florensac, Marseillan, Pinet et Pomérols
 Les communes d'Agde et de Marseillan peuvent produire l'appellation Côtes de Thau Cap d'Agde.
-Orographie et géologie
-Climat
-Le climat de la zone est largement influencé par la présence de l'étang de Thau à proximité. Ce dernier est en effet comme une petite mer intérieure d'une vingtaine de kilomètres. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de la zone est largement influencé par la présence de l'étang de Thau à proximité. Ce dernier est en effet comme une petite mer intérieure d'une vingtaine de kilomètres. 
 La pluviométrie annuelle moyenne est de l'ordre de 600 mm. Mais les précipitations ne sont pas répartis de la même manière dans le temps. Elles sont fortes en automne et en hiver, et faibles en été. Cette faiblesse des pluies estivale, qui pourrait représenter un risque pour la végétation en termes de stress hydrique, est compensée par la brise marine qui permet une évaporation plus faible. 
 Enfin, en termes de température, la présence d'une large étendue d'eau permet d'atténuer la rigueur du climat méditerranéen.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes-de-thau</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Conditions de production
-Encépagement
-Cépages noirs
-Les cépages noirs utilisés sont : l'Alicante Henri Bouschet N, l'Alphonse lavallée N, l'Aramon N, l'Arinarnoa N, l'Aubun N, le Cabernet franc N, le Cabernet-Sauvignon N, le Caladoc N, le Carignan N, le Carmenère N, le Chambourcin N, le Chenanson N, le Cinsaut N, le Couderc noir N, le Cot N, le Counoise N, l'Egiodola N, le Fer N, le Gamay N, le Gamay de Chaudenay N, le Grenache N, le Landal N, le Lival N, le Lledoner pelut N, le Maréchal Foch N , le Marselan N, le Meunier N, le Merlot N, la Mondeuse N, le Morrastel N, le Mourvèdre N, le Muscardin N, le Muscat de Hambourg N, la Négrette N, le Nielluccio N, le Petit Verdot N, le Pinot noir N, le Piquepoul noir N, le Plant droit N, le Portan N, le Rivairenc N, le Sciaccarello N, le Syrah N, le Tannat N, le Tempranillo N, le Terret noir N et le Villard noir N.
-Cépages gris
-Les cépages gris utilisés sont : l'Aramon gris G, le Grenache gris G, le Pinot gris G, le Piquepoul gris G, le Sauvignon gris G et le Terret gris G. 
-Cépages blancs
-Les cépages blancs utilisés sont : l'Altesse B, l'Alvarinho B, l'Aramon blanc B, l'Aranel B, l'Arvine B, l'Auxerrois B, le Baco blanc B, le Bourboulenc B, le Carignan blanc B, le Chardonnay B, le Chasan B, le Chasselas B, le Chenin B, la Clairette B, le Clarin B, le Colombard B, le Danlas B, le Grenache blanc B, le Gros Manseng B, le Jurançon blanc B,  le Listan B, le Macabeu B,  le Marsanne B, le Mauzac B, le Müller-Thurgau B, le Muscadelle B, le Muscat à petits grains blancs B, le Muscat d'Alexandrie B, le Petit Manseng B, le Picardan B, le Piquepoul blanc B, le Parellada B, le Ravat blanc B, le Rayon d’or B, le Riesling B, le Rivairenc blanc B, la Roussanne B, le Sauvignon B, le Semillon B, le Servant B, le Seyval B ; le Sylvaner B, le Terret blanc B, l'Ugni blanc B, le Valérien B, le Vermentino B, le Villard blanc B,  le Viognier B et le Verdelho B.
-Cépages rosés
-Les cépages rosés utilisés sont : le Chasselas rose Rs, la Clairette rose Rs, le Gewurztraminer Rs, le Muscat à petits grains Rosés Rs, le Rubilande Rs et le Savagnin rose Rs.
-Cépages rouges
-Les cépages rouges utilisés sont : le Cardinal Rg et le Muscat à petits grains rouges Rg,
-Types de vin
-Il existe 18 labellisations différentes :
-Côtes de Thau blanc[1]
-Côtes de Thau rosé[2]
-Côtes de Thau rouge[3]
-Côtes de Thau mousseux de qualité blanc[4]
-Côtes de Thau mousseux de qualité rosé[5]
-Côtes de Thau mousseux de qualité rouge[6]
-Côtes de Thau primeur ou nouveau blanc[7]
-Côtes de Thau primeur ou nouveau rosé[8]
-Côtes de Thau primeur ou nouveau rouge[9]
-Côtes de Thau Cap d'Agde blanc[10]
-Côtes de Thau Cap d'Agde rosé[11]
-Côtes de Thau Cap d'Agde rouge[12]
-Côtes de Thau Cap d'Agde mousseux de qualité blanc[13]
-Côtes de Thau Cap d'Agde mousseux de qualité rosé[14]
-Côtes de Thau Cap d'Agde mousseux de qualité rouge[15]
-Côtes de Thau Cap d'Agde primeur ou nouveau blanc[16]
-Côtes de Thau Cap d'Agde primeur ou nouveau rosé[17]v
-Côtes de Thau Cap d'Agde primeur ou nouveau rouge[18]
-Vin et gastronomie
-Production et structure des exploitations
-En moyenne, la production est d'environ 55 000 hectolitres chaque année dans 4 caves coopératives et 13 exploitations particulières.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cépages noirs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages noirs utilisés sont : l'Alicante Henri Bouschet N, l'Alphonse lavallée N, l'Aramon N, l'Arinarnoa N, l'Aubun N, le Cabernet franc N, le Cabernet-Sauvignon N, le Caladoc N, le Carignan N, le Carmenère N, le Chambourcin N, le Chenanson N, le Cinsaut N, le Couderc noir N, le Cot N, le Counoise N, l'Egiodola N, le Fer N, le Gamay N, le Gamay de Chaudenay N, le Grenache N, le Landal N, le Lival N, le Lledoner pelut N, le Maréchal Foch N , le Marselan N, le Meunier N, le Merlot N, la Mondeuse N, le Morrastel N, le Mourvèdre N, le Muscardin N, le Muscat de Hambourg N, la Négrette N, le Nielluccio N, le Petit Verdot N, le Pinot noir N, le Piquepoul noir N, le Plant droit N, le Portan N, le Rivairenc N, le Sciaccarello N, le Syrah N, le Tannat N, le Tempranillo N, le Terret noir N et le Villard noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages gris</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages gris utilisés sont : l'Aramon gris G, le Grenache gris G, le Pinot gris G, le Piquepoul gris G, le Sauvignon gris G et le Terret gris G. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages blancs utilisés sont : l'Altesse B, l'Alvarinho B, l'Aramon blanc B, l'Aranel B, l'Arvine B, l'Auxerrois B, le Baco blanc B, le Bourboulenc B, le Carignan blanc B, le Chardonnay B, le Chasan B, le Chasselas B, le Chenin B, la Clairette B, le Clarin B, le Colombard B, le Danlas B, le Grenache blanc B, le Gros Manseng B, le Jurançon blanc B,  le Listan B, le Macabeu B,  le Marsanne B, le Mauzac B, le Müller-Thurgau B, le Muscadelle B, le Muscat à petits grains blancs B, le Muscat d'Alexandrie B, le Petit Manseng B, le Picardan B, le Piquepoul blanc B, le Parellada B, le Ravat blanc B, le Rayon d’or B, le Riesling B, le Rivairenc blanc B, la Roussanne B, le Sauvignon B, le Semillon B, le Servant B, le Seyval B ; le Sylvaner B, le Terret blanc B, l'Ugni blanc B, le Valérien B, le Vermentino B, le Villard blanc B,  le Viognier B et le Verdelho B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages rosés</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages rosés utilisés sont : le Chasselas rose Rs, la Clairette rose Rs, le Gewurztraminer Rs, le Muscat à petits grains Rosés Rs, le Rubilande Rs et le Savagnin rose Rs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages rouges utilisés sont : le Cardinal Rg et le Muscat à petits grains rouges Rg,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il existe 18 labellisations différentes :
+Côtes de Thau blanc
+Côtes de Thau rosé
+Côtes de Thau rouge
+Côtes de Thau mousseux de qualité blanc
+Côtes de Thau mousseux de qualité rosé
+Côtes de Thau mousseux de qualité rouge
+Côtes de Thau primeur ou nouveau blanc
+Côtes de Thau primeur ou nouveau rosé
+Côtes de Thau primeur ou nouveau rouge
+Côtes de Thau Cap d'Agde blanc
+Côtes de Thau Cap d'Agde rosé
+Côtes de Thau Cap d'Agde rouge
+Côtes de Thau Cap d'Agde mousseux de qualité blanc
+Côtes de Thau Cap d'Agde mousseux de qualité rosé
+Côtes de Thau Cap d'Agde mousseux de qualité rouge
+Côtes de Thau Cap d'Agde primeur ou nouveau blanc
+Côtes de Thau Cap d'Agde primeur ou nouveau rosév
+Côtes de Thau Cap d'Agde primeur ou nouveau rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Côtes-de-thau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-thau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Production et structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En moyenne, la production est d'environ 55 000 hectolitres chaque année dans 4 caves coopératives et 13 exploitations particulières.
 			Cave coopérative d'Agde.
 </t>
         </is>
